--- a/1115/M4D_LUB.xlsx
+++ b/1115/M4D_LUB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kosenjp-my.sharepoint.com/personal/r04i06_ed_cc_suzuka-ct_ac_jp/Documents/3年/実験/共振/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r04i12\Documents\_my\1115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{AD326CB4-5BC3-4C7A-B8D9-DE7E5711C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E317F89-155B-4237-AC74-5BB8BF709403}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA0F26-5D16-4E0B-8159-AF0052239160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B89CE4B1-E9E8-495D-9D17-1491F71262CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B89CE4B1-E9E8-495D-9D17-1491F71262CF}"/>
   </bookViews>
   <sheets>
     <sheet name="直列" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>周波数(Hz)</t>
     <rPh sb="0" eb="3">
@@ -166,14 +166,42 @@
     <t>インピーダンスZ(Ω)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>f(Hz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VL(mV)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VC(mV)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z_max / sqrt(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.000000000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -474,19 +502,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -7457,8 +7485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747145E-538F-43FE-8F27-4C9F7A9173D4}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7508,19 +7536,19 @@
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>13</v>
@@ -7552,27 +7580,27 @@
         <v>1000</v>
       </c>
       <c r="F4" s="10">
-        <f>C4/178.9</f>
+        <f t="shared" ref="F4:F13" si="0">C4/178.9</f>
         <v>0.95025153717160427</v>
       </c>
       <c r="G4" s="10">
-        <f>D4/F4</f>
+        <f t="shared" ref="G4:G13" si="1">D4/F4</f>
         <v>168.37647058823529</v>
       </c>
       <c r="H4" s="10">
-        <f>E4/F4</f>
+        <f t="shared" ref="H4:H13" si="2">E4/F4</f>
         <v>1052.3529411764705</v>
       </c>
       <c r="I4" s="10">
-        <f>G4-H4</f>
+        <f t="shared" ref="I4:I13" si="3">G4-H4</f>
         <v>-883.9764705882352</v>
       </c>
       <c r="J4" s="24">
-        <f>ABS(I4)</f>
+        <f t="shared" ref="J4:J13" si="4">ABS(I4)</f>
         <v>883.9764705882352</v>
       </c>
       <c r="K4" s="26">
-        <f>1/J4</f>
+        <f t="shared" ref="K4:K13" si="5">1/J4</f>
         <v>1.1312518299661956E-3</v>
       </c>
     </row>
@@ -7590,27 +7618,27 @@
         <v>1050</v>
       </c>
       <c r="F5" s="6">
-        <f>C5/178.9</f>
+        <f t="shared" si="0"/>
         <v>1.0061486864169926</v>
       </c>
       <c r="G5" s="6">
-        <f>D5/F5</f>
+        <f t="shared" si="1"/>
         <v>218.65555555555559</v>
       </c>
       <c r="H5" s="6">
-        <f>E5/F5</f>
+        <f t="shared" si="2"/>
         <v>1043.5833333333335</v>
       </c>
       <c r="I5" s="6">
-        <f>G5-H5</f>
+        <f t="shared" si="3"/>
         <v>-824.92777777777792</v>
       </c>
       <c r="J5" s="24">
-        <f>ABS(I5)</f>
+        <f t="shared" si="4"/>
         <v>824.92777777777792</v>
       </c>
       <c r="K5" s="27">
-        <f>1/J5</f>
+        <f t="shared" si="5"/>
         <v>1.2122273330325212E-3</v>
       </c>
     </row>
@@ -7628,27 +7656,27 @@
         <v>1100</v>
       </c>
       <c r="F6" s="6">
-        <f>C6/178.9</f>
+        <f t="shared" si="0"/>
         <v>1.1738401341531581</v>
       </c>
       <c r="G6" s="6">
-        <f>D6/F6</f>
+        <f t="shared" si="1"/>
         <v>298.16666666666669</v>
       </c>
       <c r="H6" s="6">
-        <f>E6/F6</f>
+        <f t="shared" si="2"/>
         <v>937.09523809523819</v>
       </c>
       <c r="I6" s="6">
-        <f>G6-H6</f>
+        <f t="shared" si="3"/>
         <v>-638.92857142857156</v>
       </c>
       <c r="J6" s="24">
-        <f>ABS(I6)</f>
+        <f t="shared" si="4"/>
         <v>638.92857142857156</v>
       </c>
       <c r="K6" s="27">
-        <f>1/J6</f>
+        <f t="shared" si="5"/>
         <v>1.5651201788708772E-3</v>
       </c>
     </row>
@@ -7666,27 +7694,27 @@
         <v>1300</v>
       </c>
       <c r="F7" s="6">
-        <f>C7/178.9</f>
+        <f t="shared" si="0"/>
         <v>2.2917831190609279</v>
       </c>
       <c r="G7" s="6">
-        <f>D7/F7</f>
+        <f t="shared" si="1"/>
         <v>296.7121951219512</v>
       </c>
       <c r="H7" s="6">
-        <f>E7/F7</f>
+        <f t="shared" si="2"/>
         <v>567.2439024390244</v>
       </c>
       <c r="I7" s="6">
-        <f>G7-H7</f>
+        <f t="shared" si="3"/>
         <v>-270.5317073170732</v>
       </c>
       <c r="J7" s="24">
-        <f>ABS(I7)</f>
+        <f t="shared" si="4"/>
         <v>270.5317073170732</v>
       </c>
       <c r="K7" s="27">
-        <f>1/J7</f>
+        <f t="shared" si="5"/>
         <v>3.6964243855821415E-3</v>
       </c>
     </row>
@@ -7704,27 +7732,27 @@
         <v>1600</v>
       </c>
       <c r="F8" s="6">
-        <f>C8/178.9</f>
+        <f t="shared" si="0"/>
         <v>4.4158747903856899</v>
       </c>
       <c r="G8" s="6">
-        <f>D8/F8</f>
+        <f t="shared" si="1"/>
         <v>357.8</v>
       </c>
       <c r="H8" s="6">
-        <f>E8/F8</f>
+        <f t="shared" si="2"/>
         <v>362.32911392405066</v>
       </c>
       <c r="I8" s="6">
-        <f>G8-H8</f>
+        <f t="shared" si="3"/>
         <v>-4.5291139240506482</v>
       </c>
       <c r="J8" s="24">
-        <f>ABS(I8)</f>
+        <f t="shared" si="4"/>
         <v>4.5291139240506482</v>
       </c>
       <c r="K8" s="27">
-        <f>1/J8</f>
+        <f t="shared" si="5"/>
         <v>0.22079373951928377</v>
       </c>
     </row>
@@ -7742,27 +7770,27 @@
         <v>900</v>
       </c>
       <c r="F9" s="6">
-        <f>C9/178.9</f>
+        <f t="shared" si="0"/>
         <v>4.0245947456679705</v>
       </c>
       <c r="G9" s="6">
-        <f>D9/F9</f>
+        <f t="shared" si="1"/>
         <v>422.40277777777783</v>
       </c>
       <c r="H9" s="6">
-        <f>E9/F9</f>
+        <f t="shared" si="2"/>
         <v>223.62500000000003</v>
       </c>
       <c r="I9" s="6">
-        <f>G9-H9</f>
+        <f t="shared" si="3"/>
         <v>198.7777777777778</v>
       </c>
       <c r="J9" s="24">
-        <f>ABS(I9)</f>
+        <f t="shared" si="4"/>
         <v>198.7777777777778</v>
       </c>
       <c r="K9" s="27">
-        <f>1/J9</f>
+        <f t="shared" si="5"/>
         <v>5.0307434320849631E-3</v>
       </c>
     </row>
@@ -7780,27 +7808,27 @@
         <v>350</v>
       </c>
       <c r="F10" s="6">
-        <f>C10/178.9</f>
+        <f t="shared" si="0"/>
         <v>2.6830631637786473</v>
       </c>
       <c r="G10" s="6">
-        <f>D10/F10</f>
+        <f t="shared" si="1"/>
         <v>484.52083333333331</v>
       </c>
       <c r="H10" s="6">
-        <f>E10/F10</f>
+        <f t="shared" si="2"/>
         <v>130.44791666666666</v>
       </c>
       <c r="I10" s="6">
-        <f>G10-H10</f>
+        <f t="shared" si="3"/>
         <v>354.07291666666663</v>
       </c>
       <c r="J10" s="24">
-        <f>ABS(I10)</f>
+        <f t="shared" si="4"/>
         <v>354.07291666666663</v>
       </c>
       <c r="K10" s="27">
-        <f>1/J10</f>
+        <f t="shared" si="5"/>
         <v>2.8242770145038396E-3</v>
       </c>
     </row>
@@ -7818,27 +7846,27 @@
         <v>120</v>
       </c>
       <c r="F11" s="6">
-        <f>C11/178.9</f>
+        <f t="shared" si="0"/>
         <v>1.9564002235885969</v>
       </c>
       <c r="G11" s="6">
-        <f>D11/F11</f>
+        <f t="shared" si="1"/>
         <v>536.70000000000005</v>
       </c>
       <c r="H11" s="6">
-        <f>E11/F11</f>
+        <f t="shared" si="2"/>
         <v>61.337142857142858</v>
       </c>
       <c r="I11" s="6">
-        <f>G11-H11</f>
+        <f t="shared" si="3"/>
         <v>475.36285714285719</v>
       </c>
       <c r="J11" s="24">
-        <f>ABS(I11)</f>
+        <f t="shared" si="4"/>
         <v>475.36285714285719</v>
       </c>
       <c r="K11" s="27">
-        <f>1/J11</f>
+        <f t="shared" si="5"/>
         <v>2.1036561543963405E-3</v>
       </c>
     </row>
@@ -7856,27 +7884,27 @@
         <v>50</v>
       </c>
       <c r="F12" s="7">
-        <f>C12/178.9</f>
+        <f t="shared" si="0"/>
         <v>1.6769144773616544</v>
       </c>
       <c r="G12" s="7">
-        <f>D12/F12</f>
+        <f t="shared" si="1"/>
         <v>596.33333333333337</v>
       </c>
       <c r="H12" s="7">
-        <f>E12/F12</f>
+        <f t="shared" si="2"/>
         <v>29.81666666666667</v>
       </c>
       <c r="I12" s="7">
-        <f>G12-H12</f>
+        <f t="shared" si="3"/>
         <v>566.51666666666665</v>
       </c>
       <c r="J12" s="24">
-        <f>ABS(I12)</f>
+        <f t="shared" si="4"/>
         <v>566.51666666666665</v>
       </c>
       <c r="K12" s="27">
-        <f>1/J12</f>
+        <f t="shared" si="5"/>
         <v>1.7651731340648997E-3</v>
       </c>
     </row>
@@ -7894,32 +7922,32 @@
         <v>1600</v>
       </c>
       <c r="F13" s="1">
-        <f>C13/178.9</f>
+        <f t="shared" si="0"/>
         <v>4.6394633873672442</v>
       </c>
       <c r="G13" s="1">
-        <f>D13/F13</f>
+        <f t="shared" si="1"/>
         <v>377.19879518072293</v>
       </c>
       <c r="H13" s="1">
-        <f>E13/F13</f>
+        <f t="shared" si="2"/>
         <v>344.86746987951807</v>
       </c>
       <c r="I13" s="1">
-        <f>G13-H13</f>
+        <f t="shared" si="3"/>
         <v>32.331325301204856</v>
       </c>
       <c r="J13" s="1">
-        <f>ABS(I13)</f>
+        <f t="shared" si="4"/>
         <v>32.331325301204856</v>
       </c>
       <c r="K13" s="28">
-        <f>1/J13</f>
+        <f t="shared" si="5"/>
         <v>3.0929755915781593E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
@@ -7927,7 +7955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C18" s="14">
         <v>1989</v>
       </c>
@@ -7936,88 +7964,95 @@
         <v>883.9764705882352</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C19" s="14">
         <v>2978</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" ref="D19:D26" si="0">ABS(I5)</f>
+        <f t="shared" ref="D19:D26" si="6">ABS(I5)</f>
         <v>824.92777777777792</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C20" s="14">
         <v>4462</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>638.92857142857156</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C21" s="14">
         <v>6684</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>270.5317073170732</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C22" s="14">
         <v>10000</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.5291139240506482</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C23" s="14">
         <v>14960</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>198.7777777777778</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C24" s="14">
         <v>22320</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>354.07291666666663</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C25" s="14">
         <v>33400</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>475.36285714285719</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="17">
         <v>50000</v>
       </c>
       <c r="D26" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>566.51666666666665</v>
       </c>
     </row>
-    <row r="30" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C32" s="6">
         <v>1989</v>
       </c>
@@ -8025,8 +8060,11 @@
         <f>1/J4</f>
         <v>1.1312518299661956E-3</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C33" s="6">
         <v>2978</v>
       </c>
@@ -8034,26 +8072,32 @@
         <f>1/J5</f>
         <v>1.2122273330325212E-3</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>0.15612475079753901</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C34" s="6">
         <v>4462</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D33:D40" si="1">1/J6</f>
+        <f t="shared" ref="D34:D38" si="7">1/J6</f>
         <v>1.5651201788708772E-3</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C35" s="6">
         <v>6684</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.6964243855821415E-3</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C36" s="6">
         <v>10000</v>
       </c>
@@ -8062,25 +8106,25 @@
         <v>0.22079373951928377</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C37" s="6">
         <v>14960</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.0307434320849631E-3</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C38" s="6">
         <v>22320</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.8242770145038396E-3</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C39" s="6">
         <v>33400</v>
       </c>
@@ -8089,7 +8133,7 @@
         <v>2.1036561543963405E-3</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="7">
         <v>50000</v>
       </c>
@@ -8098,8 +8142,8 @@
         <v>1.7651731340648997E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
@@ -8107,7 +8151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C46" s="6">
         <v>1989</v>
       </c>
@@ -8116,21 +8160,21 @@
         <v>0.95025153717160427</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C47" s="6">
         <v>2978</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D54" si="2">C5/178.9</f>
+        <f t="shared" ref="D47:D54" si="8">C5/178.9</f>
         <v>1.0061486864169926</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C48" s="6">
         <v>4462</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.1738401341531581</v>
       </c>
     </row>
@@ -8139,7 +8183,7 @@
         <v>6684</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.2917831190609279</v>
       </c>
     </row>
@@ -8148,7 +8192,7 @@
         <v>10000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.4158747903856899</v>
       </c>
     </row>
@@ -8157,7 +8201,7 @@
         <v>14960</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0245947456679705</v>
       </c>
     </row>
@@ -8166,7 +8210,7 @@
         <v>22320</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.6830631637786473</v>
       </c>
     </row>
@@ -8175,7 +8219,7 @@
         <v>33400</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.9564002235885969</v>
       </c>
     </row>
@@ -8184,7 +8228,7 @@
         <v>50000</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.6769144773616544</v>
       </c>
     </row>
@@ -8200,8 +8244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2DAE71-909A-48B4-8047-54E00FABF368}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8543,7 +8587,7 @@
     <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -8572,15 +8616,15 @@
         <v>300</v>
       </c>
       <c r="E16" s="10">
-        <f>C16/178.9</f>
+        <f t="shared" ref="E16:E25" si="5">C16/178.9</f>
         <v>5.1425377305757403</v>
       </c>
       <c r="F16" s="12">
-        <f>E16/D16</f>
+        <f t="shared" ref="F16:F25" si="6">E16/D16</f>
         <v>1.7141792435252469E-2</v>
       </c>
       <c r="G16" s="29">
-        <f>1/F16</f>
+        <f t="shared" ref="G16:G25" si="7">1/F16</f>
         <v>58.336956521739133</v>
       </c>
     </row>
@@ -8595,15 +8639,15 @@
         <v>410</v>
       </c>
       <c r="E17" s="6">
-        <f>C17/178.9</f>
+        <f t="shared" si="5"/>
         <v>4.6953605366126325</v>
       </c>
       <c r="F17" s="8">
-        <f>E17/D17</f>
+        <f t="shared" si="6"/>
         <v>1.1452098869786908E-2</v>
       </c>
       <c r="G17" s="16">
-        <f>1/F17</f>
+        <f t="shared" si="7"/>
         <v>87.320238095238096</v>
       </c>
     </row>
@@ -8618,15 +8662,15 @@
         <v>560</v>
       </c>
       <c r="E18" s="6">
-        <f>C18/178.9</f>
+        <f t="shared" si="5"/>
         <v>4.0804918949133597</v>
       </c>
       <c r="F18" s="8">
-        <f>E18/D18</f>
+        <f t="shared" si="6"/>
         <v>7.2865926694881426E-3</v>
       </c>
       <c r="G18" s="16">
-        <f>1/F18</f>
+        <f t="shared" si="7"/>
         <v>137.23835616438356</v>
       </c>
     </row>
@@ -8641,15 +8685,15 @@
         <v>720</v>
       </c>
       <c r="E19" s="6">
-        <f>C19/178.9</f>
+        <f t="shared" si="5"/>
         <v>2.9066517607602012</v>
       </c>
       <c r="F19" s="8">
-        <f>E19/D19</f>
+        <f t="shared" si="6"/>
         <v>4.0370163343891683E-3</v>
       </c>
       <c r="G19" s="16">
-        <f>1/F19</f>
+        <f t="shared" si="7"/>
         <v>247.7076923076923</v>
       </c>
     </row>
@@ -8664,15 +8708,15 @@
         <v>850</v>
       </c>
       <c r="E20" s="6">
-        <f>C20/178.9</f>
+        <f t="shared" si="5"/>
         <v>1.397428731134712</v>
       </c>
       <c r="F20" s="8">
-        <f>E20/D20</f>
+        <f t="shared" si="6"/>
         <v>1.6440338013349552E-3</v>
       </c>
       <c r="G20" s="16">
-        <f>1/F20</f>
+        <f t="shared" si="7"/>
         <v>608.2600000000001</v>
       </c>
     </row>
@@ -8687,15 +8731,15 @@
         <v>850</v>
       </c>
       <c r="E21" s="25">
-        <f>C21/178.9</f>
+        <f t="shared" si="5"/>
         <v>1.3415315818893236</v>
       </c>
       <c r="F21" s="9">
-        <f>E21/D21</f>
+        <f t="shared" si="6"/>
         <v>1.5782724492815572E-3</v>
       </c>
       <c r="G21" s="15">
-        <f>1/F21</f>
+        <f t="shared" si="7"/>
         <v>633.60416666666663</v>
       </c>
     </row>
@@ -8710,15 +8754,15 @@
         <v>810</v>
       </c>
       <c r="E22" s="6">
-        <f>C22/178.9</f>
+        <f t="shared" si="5"/>
         <v>2.3476802683063163</v>
       </c>
       <c r="F22" s="8">
-        <f>E22/D22</f>
+        <f t="shared" si="6"/>
         <v>2.8983707016127362E-3</v>
       </c>
       <c r="G22" s="16">
-        <f>1/F22</f>
+        <f t="shared" si="7"/>
         <v>345.0214285714286</v>
       </c>
     </row>
@@ -8733,15 +8777,15 @@
         <v>640</v>
       </c>
       <c r="E23" s="6">
-        <f>C23/178.9</f>
+        <f t="shared" si="5"/>
         <v>3.9686975964225821</v>
       </c>
       <c r="F23" s="8">
-        <f>E23/D23</f>
+        <f t="shared" si="6"/>
         <v>6.2010899944102849E-3</v>
       </c>
       <c r="G23" s="16">
-        <f>1/F23</f>
+        <f t="shared" si="7"/>
         <v>161.26197183098591</v>
       </c>
     </row>
@@ -8756,15 +8800,15 @@
         <v>460</v>
       </c>
       <c r="E24" s="7">
-        <f>C24/178.9</f>
+        <f t="shared" si="5"/>
         <v>4.9189491335941868</v>
       </c>
       <c r="F24" s="18">
-        <f>E24/D24</f>
+        <f t="shared" si="6"/>
         <v>1.0693367681726493E-2</v>
       </c>
       <c r="G24" s="19">
-        <f>1/F24</f>
+        <f t="shared" si="7"/>
         <v>93.515909090909091</v>
       </c>
     </row>
@@ -8779,15 +8823,15 @@
         <v>330</v>
       </c>
       <c r="E25" s="1">
-        <f>C25/178.9</f>
+        <f t="shared" si="5"/>
         <v>5.3661263275572946</v>
       </c>
       <c r="F25" s="4">
-        <f>E25/D25</f>
+        <f t="shared" si="6"/>
         <v>1.6260988871385742E-2</v>
       </c>
       <c r="G25" s="5">
-        <f>1/F25</f>
+        <f t="shared" si="7"/>
         <v>61.496874999999996</v>
       </c>
     </row>
@@ -8814,7 +8858,7 @@
         <v>2978</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C38" si="5">C17/178.9</f>
+        <f t="shared" ref="C30:C38" si="8">C17/178.9</f>
         <v>4.6953605366126325</v>
       </c>
     </row>
@@ -8823,7 +8867,7 @@
         <v>4462</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.0804918949133597</v>
       </c>
     </row>
@@ -8832,7 +8876,7 @@
         <v>6684</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9066517607602012</v>
       </c>
     </row>
@@ -8841,7 +8885,7 @@
         <v>10000</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.397428731134712</v>
       </c>
     </row>
@@ -8850,7 +8894,7 @@
         <v>10606</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3415315818893236</v>
       </c>
     </row>
@@ -8859,7 +8903,7 @@
         <v>14960</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.3476802683063163</v>
       </c>
     </row>
@@ -8868,7 +8912,7 @@
         <v>22320</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.9686975964225821</v>
       </c>
     </row>
@@ -8877,7 +8921,7 @@
         <v>33400</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.9189491335941868</v>
       </c>
     </row>
@@ -8886,7 +8930,7 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.3661263275572946</v>
       </c>
     </row>
@@ -8913,7 +8957,7 @@
         <v>2978</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:C53" si="6">E17/D17</f>
+        <f t="shared" ref="C45:C49" si="9">E17/D17</f>
         <v>1.1452098869786908E-2</v>
       </c>
     </row>
@@ -8922,7 +8966,7 @@
         <v>4462</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.2865926694881426E-3</v>
       </c>
     </row>
@@ -8931,7 +8975,7 @@
         <v>6684</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.0370163343891683E-3</v>
       </c>
     </row>
@@ -8940,7 +8984,7 @@
         <v>10000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6440338013349552E-3</v>
       </c>
     </row>
@@ -8949,7 +8993,7 @@
         <v>10606</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5782724492815572E-3</v>
       </c>
     </row>
@@ -9012,7 +9056,7 @@
         <v>2978</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C68" si="7">1/F17</f>
+        <f t="shared" ref="C60:C68" si="10">1/F17</f>
         <v>87.320238095238096</v>
       </c>
     </row>
@@ -9021,7 +9065,7 @@
         <v>4462</v>
       </c>
       <c r="C61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>137.23835616438356</v>
       </c>
     </row>
@@ -9030,7 +9074,7 @@
         <v>6684</v>
       </c>
       <c r="C62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>247.7076923076923</v>
       </c>
     </row>
@@ -9039,7 +9083,7 @@
         <v>10000</v>
       </c>
       <c r="C63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>608.2600000000001</v>
       </c>
     </row>
@@ -9048,7 +9092,7 @@
         <v>10606</v>
       </c>
       <c r="C64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>633.60416666666663</v>
       </c>
     </row>
@@ -9057,7 +9101,7 @@
         <v>14960</v>
       </c>
       <c r="C65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>345.0214285714286</v>
       </c>
     </row>
@@ -9066,7 +9110,7 @@
         <v>22320</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>161.26197183098591</v>
       </c>
     </row>
@@ -9075,7 +9119,7 @@
         <v>33400</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93.515909090909091</v>
       </c>
     </row>
@@ -9084,7 +9128,7 @@
         <v>50000</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>61.496874999999996</v>
       </c>
     </row>
@@ -9094,6 +9138,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1115/M4D_LUB.xlsx
+++ b/1115/M4D_LUB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r04i12\Documents\_my\1115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA0F26-5D16-4E0B-8159-AF0052239160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794818A-1F7B-4786-BA7C-F7C127D0FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B89CE4B1-E9E8-495D-9D17-1491F71262CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B89CE4B1-E9E8-495D-9D17-1491F71262CF}"/>
   </bookViews>
   <sheets>
     <sheet name="直列" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>周波数(Hz)</t>
     <rPh sb="0" eb="3">
@@ -187,11 +187,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>z</t>
+    <t>z_max / sqrt(2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>z_max / sqrt(2)</t>
+    <t>m1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=m1*f1+b, b=?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=m2*f2+b, b=?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7485,8 +7497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747145E-538F-43FE-8F27-4C9F7A9173D4}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7947,7 +7959,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C18" s="14">
         <v>1989</v>
       </c>
@@ -7964,7 +7976,7 @@
         <v>883.9764705882352</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C19" s="14">
         <v>2978</v>
       </c>
@@ -7973,7 +7985,7 @@
         <v>824.92777777777792</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" s="14">
         <v>4462</v>
       </c>
@@ -7982,7 +7994,7 @@
         <v>638.92857142857156</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C21" s="14">
         <v>6684</v>
       </c>
@@ -7991,7 +8003,7 @@
         <v>270.5317073170732</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C22" s="14">
         <v>10000</v>
       </c>
@@ -8000,7 +8012,7 @@
         <v>4.5291139240506482</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C23" s="14">
         <v>14960</v>
       </c>
@@ -8009,7 +8021,7 @@
         <v>198.7777777777778</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C24" s="14">
         <v>22320</v>
       </c>
@@ -8018,7 +8030,7 @@
         <v>354.07291666666663</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C25" s="14">
         <v>33400</v>
       </c>
@@ -8027,7 +8039,7 @@
         <v>475.36285714285719</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="17">
         <v>50000</v>
       </c>
@@ -8036,12 +8048,8 @@
         <v>566.51666666666665</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C32" s="6">
         <v>1989</v>
       </c>
@@ -8073,7 +8081,7 @@
         <v>1.2122273330325212E-3</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33">
         <v>0.15612475079753901</v>
@@ -8087,6 +8095,13 @@
         <f t="shared" ref="D34:D38" si="7">1/J6</f>
         <v>1.5651201788708772E-3</v>
       </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <f>(D36-D35)/(C36-C35)</f>
+        <v>6.5469636650694097E-5</v>
+      </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C35" s="6">
@@ -8096,6 +8111,13 @@
         <f t="shared" si="7"/>
         <v>3.6964243855821415E-3</v>
       </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <f>(D37-D36)/(C37-C36)</f>
+        <v>-4.3500604049838469E-5</v>
+      </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C36" s="6">
@@ -8105,6 +8127,13 @@
         <f>1/J8</f>
         <v>0.22079373951928377</v>
       </c>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <f>D35-J34*C35</f>
+        <v>-0.43390262698765719</v>
+      </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C37" s="6">
@@ -8113,6 +8142,13 @@
       <c r="D37">
         <f t="shared" si="7"/>
         <v>5.0307434320849631E-3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <f>D37-J35*C37</f>
+        <v>0.65579978001766848</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.4">
@@ -8244,7 +8280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2DAE71-909A-48B4-8047-54E00FABF368}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
